--- a/indexer_lib/data/IPCA mensal.xlsx
+++ b/indexer_lib/data/IPCA mensal.xlsx
@@ -479,6 +479,15 @@
       <c r="E2" s="2">
         <v>0.31</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.96</v>
+      </c>
       <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,5 +1355,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/indexer_lib/data/IPCA mensal.xlsx
+++ b/indexer_lib/data/IPCA mensal.xlsx
@@ -488,6 +488,9 @@
       <c r="H2" s="2">
         <v>0.96</v>
       </c>
+      <c r="I2" s="2">
+        <v>0.87</v>
+      </c>
       <c r="O2" s="1" t="s">
         <v>13</v>
       </c>

--- a/indexer_lib/data/IPCA mensal.xlsx
+++ b/indexer_lib/data/IPCA mensal.xlsx
@@ -491,6 +491,9 @@
       <c r="I2" s="2">
         <v>0.87</v>
       </c>
+      <c r="J2" s="2">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="O2" s="1" t="s">
         <v>13</v>
       </c>

--- a/indexer_lib/data/IPCA mensal.xlsx
+++ b/indexer_lib/data/IPCA mensal.xlsx
@@ -494,6 +494,9 @@
       <c r="J2" s="2">
         <v>1.1599999999999999</v>
       </c>
+      <c r="K2" s="2">
+        <v>1.25</v>
+      </c>
       <c r="O2" s="1" t="s">
         <v>13</v>
       </c>

--- a/indexer_lib/data/IPCA mensal.xlsx
+++ b/indexer_lib/data/IPCA mensal.xlsx
@@ -497,6 +497,9 @@
       <c r="K2" s="2">
         <v>1.25</v>
       </c>
+      <c r="L2" s="2">
+        <v>0.95</v>
+      </c>
       <c r="O2" s="1" t="s">
         <v>13</v>
       </c>

--- a/indexer_lib/data/IPCA mensal.xlsx
+++ b/indexer_lib/data/IPCA mensal.xlsx
@@ -500,6 +500,9 @@
       <c r="L2" s="2">
         <v>0.95</v>
       </c>
+      <c r="M2" s="2">
+        <v>0.73</v>
+      </c>
       <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
